--- a/biology/Botanique/Asplenium/Asplenium.xlsx
+++ b/biology/Botanique/Asplenium/Asplenium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Asplenium, appelé aussi doradille regroupe des centaines d'espèces, de variétés et d'hybrides de fougères de la famille des Aspleniaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme asplenium vient du grec ἄσπληνος (ásplênos), qui désigne la fougère capillaire nommée doradille ou ceterach qui était réputée bonne contre les maladies de la rate (σπλήν en grec) et du foie[2].
-Le nom vernaculaire d'herbe dorée, d'herbe à dorer ou par dérivation de doradille, fait référence au dessous de leurs frondes recouvert d'un feutrage d'écailles serrées, indusies qui protègent les sores. D'abord argentées en début de saison, ces indusies virent au roux brillant en cours d’été, d'où le surnom donné par les anglo-saxons à ces fougères (rusty back, « le dos couleur de rouille » )[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme asplenium vient du grec ἄσπληνος (ásplênos), qui désigne la fougère capillaire nommée doradille ou ceterach qui était réputée bonne contre les maladies de la rate (σπλήν en grec) et du foie.
+Le nom vernaculaire d'herbe dorée, d'herbe à dorer ou par dérivation de doradille, fait référence au dessous de leurs frondes recouvert d'un feutrage d'écailles serrées, indusies qui protègent les sores. D'abord argentées en début de saison, ces indusies virent au roux brillant en cours d’été, d'où le surnom donné par les anglo-saxons à ces fougères (rusty back, « le dos couleur de rouille » ).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes de ce genre ne semblent pas avoir eu d'usages alimentaires, mais l'ethnobotaniste François Couplan rapporte que les frondes d’ A. septentrionale font partie des espèces introduites dans le ratafia de Catalogne (liqueur à base de noix verte)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes de ce genre ne semblent pas avoir eu d'usages alimentaires, mais l'ethnobotaniste François Couplan rapporte que les frondes d’ A. septentrionale font partie des espèces introduites dans le ratafia de Catalogne (liqueur à base de noix verte).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Acropteris Link
 Amesium Newman
@@ -629,7 +647,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Asplenium abscissum Willd.
 Asplenium acuminatum Hook. et Arn.
@@ -697,7 +717,7 @@
 Asplenium obtusifolium L.
 Asplenium ocoense C. Christens.
 Asplenium oligolepidum C. Chr. (Nouvelle-Calédonie)
-Asplenium onopteris - Doradille méditerranéenne -Asplénium des ânes [5]
+Asplenium onopteris - Doradille méditerranéenne -Asplénium des ânes 
 Asplenium palmeri Maxon
 Asplenium patens Kaulfuss
 Asplenium petrarchae - Doradille de Pétrarque
